--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H2">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I2">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J2">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>812.2501510966981</v>
+        <v>61.84563144576445</v>
       </c>
       <c r="R2">
-        <v>7310.251359870283</v>
+        <v>556.61068301188</v>
       </c>
       <c r="S2">
-        <v>0.3773618891004513</v>
+        <v>0.02719612394195666</v>
       </c>
       <c r="T2">
-        <v>0.3773618891004513</v>
+        <v>0.02719612394195666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H3">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I3">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J3">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>823.8769506842563</v>
+        <v>1403.010127387618</v>
       </c>
       <c r="R3">
-        <v>7414.892556158306</v>
+        <v>12627.09114648856</v>
       </c>
       <c r="S3">
-        <v>0.3827635637577342</v>
+        <v>0.6169625311322977</v>
       </c>
       <c r="T3">
-        <v>0.3827635637577342</v>
+        <v>0.6169625311322978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H4">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I4">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J4">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>451.1350599513561</v>
+        <v>768.254358136479</v>
       </c>
       <c r="R4">
-        <v>4060.215539562205</v>
+        <v>6914.28922322831</v>
       </c>
       <c r="S4">
-        <v>0.2095920551480721</v>
+        <v>0.3378337362623686</v>
       </c>
       <c r="T4">
-        <v>0.2095920551480721</v>
+        <v>0.3378337362623687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>9.643062215463001</v>
+        <v>0.4311572993946667</v>
       </c>
       <c r="R5">
-        <v>86.787559939167</v>
+        <v>3.880415694552001</v>
       </c>
       <c r="S5">
-        <v>0.00448005355176239</v>
+        <v>0.0001895979890366164</v>
       </c>
       <c r="T5">
-        <v>0.00448005355176239</v>
+        <v>0.0001895979890366165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>9.781095987002669</v>
@@ -818,10 +818,10 @@
         <v>88.02986388302401</v>
       </c>
       <c r="S6">
-        <v>0.004544182422304968</v>
+        <v>0.004301159071905914</v>
       </c>
       <c r="T6">
-        <v>0.004544182422304968</v>
+        <v>0.004301159071905915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
         <v>5.355891217519334</v>
       </c>
       <c r="R7">
-        <v>48.20302095767401</v>
+        <v>48.203020957674</v>
       </c>
       <c r="S7">
-        <v>0.002488284212604596</v>
+        <v>0.002355210513114885</v>
       </c>
       <c r="T7">
-        <v>0.002488284212604597</v>
+        <v>0.002355210513114885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>15.722014205683</v>
+        <v>0.7029573214924444</v>
       </c>
       <c r="R8">
-        <v>141.498127851147</v>
+        <v>6.326615893432</v>
       </c>
       <c r="S8">
-        <v>0.007304263314829914</v>
+        <v>0.0003091198843685455</v>
       </c>
       <c r="T8">
-        <v>0.007304263314829915</v>
+        <v>0.0003091198843685457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
         <v>15.94706397395378</v>
@@ -1004,10 +1004,10 @@
         <v>143.523575765584</v>
       </c>
       <c r="S9">
-        <v>0.00740881879639137</v>
+        <v>0.007012594393611952</v>
       </c>
       <c r="T9">
-        <v>0.007408818796391371</v>
+        <v>0.007012594393611954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
         <v>8.732225917914889</v>
       </c>
       <c r="R10">
-        <v>78.59003326123401</v>
+        <v>78.590033261234</v>
       </c>
       <c r="S10">
-        <v>0.004056889695849365</v>
+        <v>0.003839926811338972</v>
       </c>
       <c r="T10">
-        <v>0.004056889695849365</v>
+        <v>0.003839926811338973</v>
       </c>
     </row>
   </sheetData>
